--- a/src/test/java/ExcelReport.xlsx
+++ b/src/test/java/ExcelReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="35">
   <si>
     <t>Find iphone 14 winners</t>
   </si>
@@ -31,6 +31,99 @@
   </si>
   <si>
     <t>30_01_23112236</t>
+  </si>
+  <si>
+    <t>Login to the site</t>
+  </si>
+  <si>
+    <t>30_01_23112841</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>30_01_23112850</t>
+  </si>
+  <si>
+    <t>Find a bank branch</t>
+  </si>
+  <si>
+    <t>30_01_23112900</t>
+  </si>
+  <si>
+    <t>Checking the market data on the homepage</t>
+  </si>
+  <si>
+    <t>30_01_23112939</t>
+  </si>
+  <si>
+    <t>Engineering insurance</t>
+  </si>
+  <si>
+    <t>30_01_23112949</t>
+  </si>
+  <si>
+    <t>Motorcycle loan calculating</t>
+  </si>
+  <si>
+    <t>30_01_23113000</t>
+  </si>
+  <si>
+    <t>Change language</t>
+  </si>
+  <si>
+    <t>30_01_23113010</t>
+  </si>
+  <si>
+    <t>30_01_23113840</t>
+  </si>
+  <si>
+    <t>30_01_23114124</t>
+  </si>
+  <si>
+    <t>30_01_23114225</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>30_01_23114234</t>
+  </si>
+  <si>
+    <t>30_01_23114552</t>
+  </si>
+  <si>
+    <t>30_01_23114601</t>
+  </si>
+  <si>
+    <t>30_01_23114656</t>
+  </si>
+  <si>
+    <t>30_01_23114804</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>30_01_23114807</t>
+  </si>
+  <si>
+    <t>30_01_23114814</t>
+  </si>
+  <si>
+    <t>30_01_23114817</t>
+  </si>
+  <si>
+    <t>30_01_23115058</t>
+  </si>
+  <si>
+    <t>30_01_23115100</t>
+  </si>
+  <si>
+    <t>30_01_23115107</t>
+  </si>
+  <si>
+    <t>30_01_23115111</t>
   </si>
 </sst>
 </file>
@@ -349,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -369,6 +462,342 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
